--- a/output/temu_stock_update_6.xlsx
+++ b/output/temu_stock_update_6.xlsx
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B18" s="4" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B19" s="4" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B26" s="4" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B28" s="4" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B29" s="4" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B30" s="4" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B38" s="4" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B42" s="4" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B50" s="4" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>610</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
-        <v>468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
-        <v>346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
-        <v>439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="n">
-        <v>302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B250" t="inlineStr"/>
       <c r="C250" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B251" t="inlineStr"/>
       <c r="C251" t="n">
-        <v>273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="B252" t="inlineStr"/>
       <c r="C252" t="n">
-        <v>538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="B253" t="inlineStr"/>
       <c r="C253" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
